--- a/biology/Botanique/Opuntia_stricta/Opuntia_stricta.xlsx
+++ b/biology/Botanique/Opuntia_stricta/Opuntia_stricta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Opuntia stricta, l'Oponce stricte, originaire de l'Amérique centrale et du sud des États-Unis, est une plante de la famille des Cactaceae. Devenue envahissante en Afrique du Sud, en Australie et en Nouvelle-Calédonie, elle figure dans la liste, établie par l'IUCN, des 100 espèces parmi les plus envahissantes au monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opuntia stricta, l'Oponce stricte, originaire de l'Amérique centrale et du sud des États-Unis, est une plante de la famille des Cactaceae. Devenue envahissante en Afrique du Sud, en Australie et en Nouvelle-Calédonie, elle figure dans la liste, établie par l'IUCN, des 100 espèces parmi les plus envahissantes au monde.
 </t>
         </is>
       </c>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une plante grasse pérenne[2]. En Afrique du Nord[3], son port est plus ou moins ramassé et buissonnant.
-Tiges
-Les tiges, charnues et aplaties, forment des raquettes (cladodes) mesurent moins de 20-25 cm[réf. nécessaire]. Elles sont ornementées d’aréoles rares (&lt; 100, voire 50 par face) laissant voir majoritairement l’épiderme, avec souvent une ou plusieurs épines jaunâtres, au moins près des bords et vers l’apex.
-Fleurs
-Les fleurs sont solitaires, formées par de nombreuses pièces membraneuses, rougeâtres à jaune clair. Leur diamètre est de 6 à 7 centimètres[2]. Elles sont éphémères et mellifères[4].
-Sur le littoral méditerranéen, sa floraison a lieu de mai à juillet[5].
-Fruits
-Les fruits sont plus ou moins pyriformes, toujours de teinte pourpre. Ils mesurent 4 à 6 centimètres de longueur et contiennent de 60 à 180 graines (qui peuvent rester viables plus de 10 ans), jaune à marron clair, incorporées dans la pulpe du fruit. Les fruits étant appréciés par les oiseaux et les mammifères, leurs graines sont dispersées par zoochorie[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une plante grasse pérenne. En Afrique du Nord, son port est plus ou moins ramassé et buissonnant.
 </t>
         </is>
       </c>
@@ -547,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pour certains ses fruits ont mauvais goût, pour d'autres ils ont un goût délicieux s'améliorant avec l'exposition au soleil. Des jus sont notamment vendus en France[6]. Les figues de Barbarie stricta ont notamment des teneurs en antioxydants (Bétalaines, flavonoïdes) beaucoup plus importantes que l'opuntia ficus indica[7],[8]. Les fruits d'opuntia stricta ont par le passé et de nos jours constitué une nourriture d'appoint en cas de famine, notamment à Madagascar[réf. nécessaire]. 
-Le mucilage à l'intérieur des feuilles est utilisé pour soigner les brûlures et les abcès. Il est comestible au même titre que les fruits[4].
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges, charnues et aplaties, forment des raquettes (cladodes) mesurent moins de 20-25 cm[réf. nécessaire]. Elles sont ornementées d’aréoles rares (&lt; 100, voire 50 par face) laissant voir majoritairement l’épiderme, avec souvent une ou plusieurs épines jaunâtres, au moins près des bords et vers l’apex.
 </t>
         </is>
       </c>
@@ -579,22 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est originaire d'Amérique Centrale et du sud des Etats-Unis, mais est à présent pantropicale[2]. Elle peut former des massifs impénétrables pour les hommes comme les animaux, et entrer en concurrence avec la flore locale ou parfois créer des zones de refuge.
-Espèce envahissante
-L'espèce est devenue envahissante dans de nombreuses zones géographiques, et figure dans la liste de l'IUCN des 100 espèces parmi les plus envahissantes au monde[1].
-En Australie
-Cette espèce a couvert jusqu'à 24 millions d'hectares en Australie en 1920. La lutte biologique avec la cochenille Cactoblastis cactorum a donné de bons résultats, les larves détruisant la plante en y creusant des tunnels, ouvrant la voie à des organismes pathogènes[2].
-A Madagascar
-Cet Opuntia (noms malgaches raketamena, raketadambo, mavozoloky, raketakendretevo[9]) pose un problème à Madagascar où il a été introduit et propagé. Il envahit rapidement les champs abandonnés où il a servi de clôture vivante. Il fait maintenant l'objet d'un programme d'éradication systèmatique par des moyens mécaniques[10].
-En Nouvelle-Calédonie
-Sur l'archipel calédonien, il s'est acclimaté vers 1950 et infeste jusqu'aux îlots, où il met notamment en danger l'habitat du Puffin fouquet[2].
-Dans le Nord de la Nouvelle-Calédonie, la larve d'un lépidoptère permet de contrôler certains peuplements[2].
-Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[11].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont solitaires, formées par de nombreuses pièces membraneuses, rougeâtres à jaune clair. Leur diamètre est de 6 à 7 centimètres. Elles sont éphémères et mellifères.
+Sur le littoral méditerranéen, sa floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -620,10 +632,278 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont plus ou moins pyriformes, toujours de teinte pourpre. Ils mesurent 4 à 6 centimètres de longueur et contiennent de 60 à 180 graines (qui peuvent rester viables plus de 10 ans), jaune à marron clair, incorporées dans la pulpe du fruit. Les fruits étant appréciés par les oiseaux et les mammifères, leurs graines sont dispersées par zoochorie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour certains ses fruits ont mauvais goût, pour d'autres ils ont un goût délicieux s'améliorant avec l'exposition au soleil. Des jus sont notamment vendus en France. Les figues de Barbarie stricta ont notamment des teneurs en antioxydants (Bétalaines, flavonoïdes) beaucoup plus importantes que l'opuntia ficus indica,. Les fruits d'opuntia stricta ont par le passé et de nos jours constitué une nourriture d'appoint en cas de famine, notamment à Madagascar[réf. nécessaire]. 
+Le mucilage à l'intérieur des feuilles est utilisé pour soigner les brûlures et les abcès. Il est comestible au même titre que les fruits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Amérique Centrale et du sud des Etats-Unis, mais est à présent pantropicale. Elle peut former des massifs impénétrables pour les hommes comme les animaux, et entrer en concurrence avec la flore locale ou parfois créer des zones de refuge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est devenue envahissante dans de nombreuses zones géographiques, et figure dans la liste de l'IUCN des 100 espèces parmi les plus envahissantes au monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>En Australie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a couvert jusqu'à 24 millions d'hectares en Australie en 1920. La lutte biologique avec la cochenille Cactoblastis cactorum a donné de bons résultats, les larves détruisant la plante en y creusant des tunnels, ouvrant la voie à des organismes pathogènes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A Madagascar</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet Opuntia (noms malgaches raketamena, raketadambo, mavozoloky, raketakendretevo) pose un problème à Madagascar où il a été introduit et propagé. Il envahit rapidement les champs abandonnés où il a servi de clôture vivante. Il fait maintenant l'objet d'un programme d'éradication systèmatique par des moyens mécaniques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>En Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'archipel calédonien, il s'est acclimaté vers 1950 et infeste jusqu'aux îlots, où il met notamment en danger l'habitat du Puffin fouquet.
+Dans le Nord de la Nouvelle-Calédonie, la larve d'un lépidoptère permet de contrôler certains peuplements.
+Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_stricta</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Opuntia stricta var. dillenii
 Opuntia stricta var. stricta</t>
